--- a/AdditionalData_Final/OlympicHistory.xlsx
+++ b/AdditionalData_Final/OlympicHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="253">
   <si>
     <t>When was the first Ancient Olympic Games held?</t>
   </si>
@@ -731,12 +731,150 @@
   <si>
     <t>Jacques Androuet du Cerceau</t>
   </si>
+  <si>
+    <t xml:space="preserve">Name the only city to have hosted the modern era Olympic Games three times (at 2016)? </t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t> Eiffel Tower</t>
+  </si>
+  <si>
+    <t>Brandenburg Gate</t>
+  </si>
+  <si>
+    <t> Windsor Castle</t>
+  </si>
+  <si>
+    <t>The Colosseum</t>
+  </si>
+  <si>
+    <t>Waldi at Munich 1972, Wenlock at London 2012, and Vinicius at Rio 2016 are the respective Olympic _______.</t>
+  </si>
+  <si>
+    <t>The marathon's odd distance was established in the 1908 Olympics by the measurement from ______ to the finish line so that the Ruler's children could witness the start.</t>
+  </si>
+  <si>
+    <t>Presidents</t>
+  </si>
+  <si>
+    <t>Stadiums</t>
+  </si>
+  <si>
+    <t>Mascots</t>
+  </si>
+  <si>
+    <t>Bottled water sponsors</t>
+  </si>
+  <si>
+    <t>Women were prevented from participating in the earliest Olympic games other than _______</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>Gymnastics</t>
+  </si>
+  <si>
+    <t>Owning horses</t>
+  </si>
+  <si>
+    <t>The host cities of the Summer Olympic Games 1968 to 1980 all begin with</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Superstition</t>
+  </si>
+  <si>
+    <t>Wars</t>
+  </si>
+  <si>
+    <t>Pilgrimages</t>
+  </si>
+  <si>
+    <t>Other games</t>
+  </si>
+  <si>
+    <t>Originally the Olympic Games were held every four years because __________ in the other three years.</t>
+  </si>
+  <si>
+    <t>Who set a record for the most gold medals in a single Olympic Games at the 1972 Munich Olympics?</t>
+  </si>
+  <si>
+    <t>James Connelly </t>
+  </si>
+  <si>
+    <t>Nadia Comaneci </t>
+  </si>
+  <si>
+    <t>Abebe Bikila </t>
+  </si>
+  <si>
+    <t>Mark Spitz of the USA won seven swimming gold medals, including four individual, all in record times at the 1972 Munich Olympics. Michael Phelps of the USA won eight swimming gold medals at the 2008 Beijing Olympics and thus set a new record for the maximum number of gold medals in a single Olympic Games in the history of the Olympics.</t>
+  </si>
+  <si>
+    <t>Who was the first winner in modern Olympics?</t>
+  </si>
+  <si>
+    <t>Mark Spitz </t>
+  </si>
+  <si>
+    <t>James Connelly</t>
+  </si>
+  <si>
+    <t>Which is the 'Black September Day' in Olympic history?</t>
+  </si>
+  <si>
+    <t>September 1, 1972 </t>
+  </si>
+  <si>
+    <t>September 1, 1984 </t>
+  </si>
+  <si>
+    <t>September 5, 1984 </t>
+  </si>
+  <si>
+    <t>On September 5, 1972 at the Munich Olympics, the Palestinian terrorists invaded Israeli quarters in the Olympic village killing two players and taking many others hostage. Eleven more Israeli players were killed in a crossfire between the German police and the Palestinians belonging to the Black September group. Even though several countries demanded the immediate closure of the Games, the Olympics continued.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> September 5, 1972</t>
+  </si>
+  <si>
+    <t>Which city is the first in the world to be awarded both summer and winter Olympics?</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Beijing has hosted the 2008 Summer Olympics and it will host the 2022 Winter Olympics.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,11 +896,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -771,8 +904,24 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Verdana"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3D3726"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -795,14 +944,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -812,11 +955,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,1034 +1294,1304 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="31.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>1986</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2008</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="3" t="b">
+      <c r="B17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="b">
+      <c r="C17" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>500</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>2000</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>1500</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>1916</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>1920</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>1912</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>1900</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>1920</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>1900</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>1928</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>1904</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>1928</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>1908</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>1924</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>1916</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>1916</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>1920</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>1924</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>1936</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>1980</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>1982</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>1990</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>2000</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>1912</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>1956</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>1967</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>1979</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
